--- a/관리산출물PMP:PSP/PSP/서한얼/신수동크러셔_psp_20130058_서한얼.xlsx
+++ b/관리산출물PMP:PSP/PSP/서한얼/신수동크러셔_psp_20130058_서한얼.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgtseo/Documents/GitHub/sinsudong-crusher-home/관리산출물PMP:PSP/PSP/서한얼/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35959744-7CF2-4C15-A27F-92CB7400988B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A3CC6F-5BB0-7F40-B77A-5C50D648A018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="서한얼" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>서한얼</t>
   </si>
@@ -181,12 +181,30 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>2019.11.12</t>
+  </si>
+  <si>
+    <t>2019.11.11</t>
+  </si>
+  <si>
+    <t>산출물관리</t>
+  </si>
+  <si>
+    <t>개발담당과회의</t>
+  </si>
+  <si>
+    <t>2019.11.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRS V2 작성</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -311,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -558,12 +576,12 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -575,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -583,7 +601,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -599,7 +617,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -607,7 +625,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -627,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -647,7 +665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -667,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -687,7 +705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
@@ -705,7 +723,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -715,7 +733,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
@@ -725,7 +743,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
@@ -735,7 +753,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
@@ -745,7 +763,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>30</v>
       </c>
@@ -755,7 +773,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>31</v>
       </c>
@@ -765,7 +783,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13">
       <c r="A16" s="17" t="s">
         <v>32</v>
       </c>
@@ -775,7 +793,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="17" t="s">
         <v>33</v>
       </c>
@@ -785,7 +803,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="17" t="s">
         <v>34</v>
       </c>
@@ -795,7 +813,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="17" t="s">
         <v>35</v>
       </c>
@@ -805,7 +823,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="17" t="s">
         <v>20</v>
       </c>
@@ -825,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="17" t="s">
         <v>23</v>
       </c>
@@ -846,7 +864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
@@ -866,7 +884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
@@ -886,7 +904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="13">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -894,7 +912,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="13">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -902,31 +920,67 @@
       <c r="E25" s="13"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="13">
+      <c r="A26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="12">
+        <v>900</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1500</v>
+      </c>
+      <c r="D26" s="13">
+        <v>60</v>
+      </c>
+      <c r="E26" s="13">
+        <v>300</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13">
+      <c r="A27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="12">
+        <v>1600</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1730</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>90</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13">
+      <c r="A28" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="12">
+        <v>700</v>
+      </c>
+      <c r="C28" s="12">
+        <v>800</v>
+      </c>
+      <c r="D28" s="13">
+        <v>10</v>
+      </c>
+      <c r="E28" s="13">
+        <v>50</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -934,7 +988,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -942,7 +996,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -950,7 +1004,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -958,7 +1012,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -966,7 +1020,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -974,7 +1028,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -982,7 +1036,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -990,7 +1044,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -998,7 +1052,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
